--- a/Question_Set2/Programming skills/Bash.xlsx
+++ b/Question_Set2/Programming skills/Bash.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are using an ls command to list files and folders on your new Linux server, but you notice its output is different from your usual ls output on your older Linux servers. How should you check what options are included by default when you use ls?', 'ques_type': 2, 'options': ['alias ls', 'ls –help', 'which ls', 'man ls'], 'score': 'alias ls'}, {'title': 'You are logged in to your Linux server and need to check if another user is logged in at the same time to your server. \xa0Which command should you type to show the most detailed possible information, including login time, about other logged-in users?', 'ques_type': 2, 'options': ['users', 'cat /etc/passwd', 'w', 'ps -ef'], 'score': 'w'}, {'title': 'You are running a program called extraction from the command line. The program generates a lot of errors that, by default, show on a terminal. Instead of a terminal output, you want to collect these errors in a file named errorlog.txt. To do this, you plan to execute the command shown below.\xa0\xa0What should you use as the value instead of X in the command?\xa0extraction X&amp;gterrorlog.txt', 'ques_type': 2, 'options': ['0', '1', '3', '2'], 'score': '2'}, {'title': 'You have a variable called HOSTNAME that you want to make accessible to scripts you run from the command line. You cannot modify the scripts, but you can modify how you declare the variable.How should you make this variable accessible?', 'ques_type': 2, 'options': ['Mark the variable as inheritable.', 'Mark the variable as global.', 'Use an import statement.', 'Use an export statement.'], 'score': 'Use an export statement.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are using an ls command to list files and folders on your new Linux server, but you notice its output is different from your usual ls output on your older Linux servers. How should you check what options are included by default when you use ls?",
+        "ques_type": 2,
+        "options": [
+            "alias ls",
+            "ls \u2013help",
+            "which ls",
+            "man ls"
+        ],
+        "score": "alias ls"
+    },
+    {
+        "title": "You are logged in to your Linux server and need to check if another user is logged in at the same time to your server. \u00a0Which command should you type to show the most detailed possible information, including login time, about other logged-in users?",
+        "ques_type": 2,
+        "options": [
+            "users",
+            "cat /etc/passwd",
+            "w",
+            "ps -ef"
+        ],
+        "score": "w"
+    },
+    {
+        "title": "You are running a program called extraction from the command line. The program generates a lot of errors that, by default, show on a terminal. Instead of a terminal output, you want to collect these errors in a file named errorlog.txt. To do this, you plan to execute the command shown below.\u00a0\u00a0What should you use as the value instead of X in the command?\u00a0extraction X&amp;gterrorlog.txt",
+        "ques_type": 2,
+        "options": [
+            "0",
+            "1",
+            "3",
+            "2"
+        ],
+        "score": "2"
+    },
+    {
+        "title": "You have a variable called HOSTNAME that you want to make accessible to scripts you run from the command line. You cannot modify the scripts, but you can modify how you declare the variable.How should you make this variable accessible?",
+        "ques_type": 2,
+        "options": [
+            "Mark the variable as inheritable.",
+            "Mark the variable as global.",
+            "Use an import statement.",
+            "Use an export statement."
+        ],
+        "score": "Use an export statement."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
